--- a/ancient_glass/铅钡_风化.xlsx
+++ b/ancient_glass/铅钡_风化.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,122 +436,122 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>文物采样点</t>
+          <t>Cultural relic sampling site</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硅(SiO2)</t>
+          <t>SiO2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>氧化钠(Na2O)</t>
+          <t>Na2O</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>氧化钾(K2O)</t>
+          <t>K2O</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>氧化钙(CaO)</t>
+          <t>CaO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>氧化镁(MgO)</t>
+          <t>MgO</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>氧化铝(Al2O3)</t>
+          <t>Al2O3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>氧化铁(Fe2O3)</t>
+          <t>Fe2O3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>氧化铜(CuO)</t>
+          <t>CuO</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>氧化铅(PbO)</t>
+          <t>PbO</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>氧化钡(BaO)</t>
+          <t>BaO</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>五氧化二磷(P2O5)</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>氧化锶(SrO)</t>
+          <t>SrO</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>氧化锡(SnO2)</t>
+          <t>SnO</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硫(SO2)</t>
+          <t>SO2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>成分比例累加和</t>
+          <t>Cumulative sum of component proportions</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>表面风化</t>
+          <t>Surface weathering</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>纹饰</t>
+          <t>Ornamentation</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>类型</t>
+          <t>Types</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>颜色</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>表面风化D</t>
+          <t>Surface weathering D</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>纹饰D</t>
+          <t>Ornamentation D</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>类型D</t>
+          <t>Types D</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>颜色D</t>
+          <t>Color D</t>
         </is>
       </c>
     </row>
@@ -604,11 +604,11 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>99.88999999999999</v>
+        <v>99.89</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -688,11 +688,11 @@
         <v>2.58</v>
       </c>
       <c r="P3" t="n">
-        <v>99.82000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>紫</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -726,7 +726,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08严重风化点</t>
+          <t>08 Severe weathering point</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -772,11 +772,11 @@
         <v>15.03</v>
       </c>
       <c r="P4" t="n">
-        <v>98.24000000000001</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>紫</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -860,7 +860,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -940,11 +940,11 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>98.75999999999999</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>深绿</t>
+          <t>Dark green</t>
         </is>
       </c>
       <c r="U6" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>紫</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="U7" t="n">
@@ -1062,7 +1062,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26严重风化点</t>
+          <t>26 Severe weathering point</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1108,11 +1108,11 @@
         <v>15.95</v>
       </c>
       <c r="P8" t="n">
-        <v>99.89000000000001</v>
+        <v>99.89</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>紫</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="U8" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>深绿</t>
+          <t>Dark green</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1276,11 +1276,11 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>97.62999999999998</v>
+        <v>97.63</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>深绿</t>
+          <t>Dark green</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -1360,11 +1360,11 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>98.57000000000001</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>深绿</t>
+          <t>Dark green</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1444,11 +1444,11 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>98.75999999999999</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>深绿</t>
+          <t>Dark green</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>浅绿</t>
+          <t>Light green</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>浅绿</t>
+          <t>Light green</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1650,7 +1650,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>43部位1</t>
+          <t>43 parts 1</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U15" t="n">
@@ -1734,7 +1734,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>43部位2</t>
+          <t>43 parts 2</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U16" t="n">
@@ -1864,11 +1864,11 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>99.16999999999999</v>
+        <v>99.17</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>深蓝</t>
+          <t>Dark blue</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1948,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>95.49999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="U18" t="n">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -2070,7 +2070,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>51部位1</t>
+          <t>51 parts 1</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2116,11 +2116,11 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>95.32999999999998</v>
+        <v>95.33</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2154,7 +2154,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>51部位2</t>
+          <t>51 parts 2</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2284,11 +2284,11 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>94.07999999999998</v>
+        <v>94.08</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U22" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U23" t="n">
@@ -2406,7 +2406,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>54严重风化点</t>
+          <t>54 Severe weathering point</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>浅蓝</t>
+          <t>Light blue</t>
         </is>
       </c>
       <c r="U24" t="n">
@@ -2536,11 +2536,11 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>92.24000000000001</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>蓝绿</t>
+          <t>Blue and green</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>蓝绿</t>
+          <t>Blue and green</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2704,11 +2704,11 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>98.75999999999999</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>风化</t>
+          <t>weathering</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2718,12 +2718,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>Lead and barium</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>蓝绿</t>
+          <t>Blue and green</t>
         </is>
       </c>
       <c r="U27" t="n">
